--- a/src/main/resources/templates/template_3.xlsx
+++ b/src/main/resources/templates/template_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelkozlov/IdeaProjects/brackets-excel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F6B05-48EC-7B42-9D45-6BC411559608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CACA86A-9CE2-B442-945F-92D134C28D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{3BC9D0D3-BF66-8246-9EA2-A9CF8AB1E950}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{3BC9D0D3-BF66-8246-9EA2-A9CF8AB1E950}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Возр   кат.</t>
-  </si>
-  <si>
-    <t>Вес   кат.</t>
-  </si>
-  <si>
     <t>1 место</t>
   </si>
   <si>
@@ -105,13 +99,19 @@
   </si>
   <si>
     <t>${graph.get("THREE").get(1).participant.lastName} ${graph.get("THREE").get(1).participant.firstName} ${graph.get("THREE").get(1).participant.team? "(" + graph.get("THREE").get(1).participant.team + ")" : null}</t>
+  </si>
+  <si>
+    <t>Возр кат.</t>
+  </si>
+  <si>
+    <t>Вес кат.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,32 +127,20 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -218,30 +206,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -413,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,7 +560,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,56 +568,56 @@
     <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -651,17 +634,17 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -671,10 +654,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -713,422 +696,422 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N27" s="1"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="30" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>2</v>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="L43" s="1" t="s">
-        <v>4</v>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -1136,35 +1119,35 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>5</v>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1" t="s">
-        <v>6</v>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>

--- a/src/main/resources/templates/template_3.xlsx
+++ b/src/main/resources/templates/template_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelkozlov/IdeaProjects/brackets-excel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CACA86A-9CE2-B442-945F-92D134C28D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106B870-350E-4F4E-BCB0-2296AABEF0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{3BC9D0D3-BF66-8246-9EA2-A9CF8AB1E950}"/>
   </bookViews>
@@ -74,18 +74,6 @@
     <t>Круговая система</t>
   </si>
   <si>
-    <t>${graph.get("THREE").get(5).participant.lastName} ${graph.get("THREE").get(5).participant.firstName} ${graph.get("THREE").get(5).participant.team? "(" + graph.get("THREE").get(5).participant.team + ")" : null}</t>
-  </si>
-  <si>
-    <t>${graph.get("THREE").get(4).participant.lastName} ${graph.get("THREE").get(4).participant.firstName} ${graph.get("THREE").get(4).participant.team? "(" + graph.get("THREE").get(4).participant.team + ")" : null}</t>
-  </si>
-  <si>
-    <t>${graph.get("THREE").get(3).participant.lastName} ${graph.get("THREE").get(3).participant.firstName} ${graph.get("THREE").get(3).participant.team? "(" + graph.get("THREE").get(3).participant.team + ")" : null}</t>
-  </si>
-  <si>
-    <t>${graph.get("THREE").get(2).participant.lastName} ${graph.get("THREE").get(2).participant.firstName} ${graph.get("THREE").get(2).participant.team? "(" + graph.get("THREE").get(2).participant.team + ")" : null}</t>
-  </si>
-  <si>
     <t>${tournamentName}</t>
   </si>
   <si>
@@ -95,16 +83,28 @@
     <t>${weightCategory}</t>
   </si>
   <si>
-    <t>${graph.get("THREE").get(0).participant.lastName} ${graph.get("THREE").get(0).participant.firstName} ${graph.get("THREE").get(0).participant.team? "(" + graph.get("THREE").get(0).participant.team + ")" : null}</t>
-  </si>
-  <si>
-    <t>${graph.get("THREE").get(1).participant.lastName} ${graph.get("THREE").get(1).participant.firstName} ${graph.get("THREE").get(1).participant.team? "(" + graph.get("THREE").get(1).participant.team + ")" : null}</t>
-  </si>
-  <si>
     <t>Возр кат.</t>
   </si>
   <si>
     <t>Вес кат.</t>
+  </si>
+  <si>
+    <t>${graph.get("THREE").get(0).participant.fullName} ${graph.get("THREE").get(0).participant.team? "(" + graph.get("THREE").get(0).participant.team + ")" : null}</t>
+  </si>
+  <si>
+    <t>${graph.get("THREE").get(1).participant.fullName} ${graph.get("THREE").get(1).participant.team? "(" + graph.get("THREE").get(1).participant.team + ")" : null}</t>
+  </si>
+  <si>
+    <t>${graph.get("THREE").get(2).participant.fullName} ${graph.get("THREE").get(2).participant.team? "(" + graph.get("THREE").get(2).participant.team + ")" : null}</t>
+  </si>
+  <si>
+    <t>${graph.get("THREE").get(3).participant.fullName} ${graph.get("THREE").get(3).participant.team? "(" + graph.get("THREE").get(3).participant.team + ")" : null}</t>
+  </si>
+  <si>
+    <t>${graph.get("THREE").get(4).participant.fullName} ${graph.get("THREE").get(4).participant.team? "(" + graph.get("THREE").get(4).participant.team + ")" : null}</t>
+  </si>
+  <si>
+    <t>${graph.get("THREE").get(5).participant.fullName} ${graph.get("THREE").get(5).participant.team? "(" + graph.get("THREE").get(5).participant.team + ")" : null}</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -614,10 +614,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="7"/>
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="7"/>
